--- a/Lista de Material.xlsx
+++ b/Lista de Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\DK Solutions\Projetos\Rinnai\Medição de Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salom\Documents\PlatformIO\Projects\Medidor de Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F963B-BA74-44DF-B374-8389B58BE1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F74062-016F-419F-9E1C-C2B27B3E1319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCBEF930-2D4F-4BD5-9BD9-64A6A120C547}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Lista de Materiais Final" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,9 +170,6 @@
     <t>Conversor Digital Analógico MCP4725 12bits</t>
   </si>
   <si>
-    <t>Conversor Anal[ogico Digital ADS1115</t>
-  </si>
-  <si>
     <t>https://www.makerhero.com/produto/conversor-analogico-digital-4-canais-ads1115/</t>
   </si>
   <si>
@@ -214,6 +210,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Conversor Analógico Digital ADS1115</t>
   </si>
 </sst>
 </file>
@@ -292,7 +291,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,9 +309,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,33 +660,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
@@ -712,7 +708,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
@@ -736,7 +732,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4">
@@ -758,7 +754,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4">
@@ -782,7 +778,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4">
@@ -806,7 +802,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
@@ -826,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="4">
@@ -844,7 +840,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="4">
@@ -868,29 +864,29 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>44</v>
+      <c r="A10" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="4">
@@ -908,8 +904,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>56</v>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -922,12 +918,12 @@
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>55</v>
+      <c r="A13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -940,12 +936,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
+      <c r="A14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -956,14 +952,14 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>49</v>
+      <c r="A15" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -974,14 +970,14 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -998,11 +994,11 @@
       <c r="H16" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8">
         <f>SUM(C2:C16)</f>
         <v>436.66</v>
       </c>
